--- a/data/pca/factorExposure/factorExposure_2011-11-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009447556749226137</v>
+        <v>0.01219878511123503</v>
       </c>
       <c r="C2">
-        <v>-0.03143528834462591</v>
+        <v>0.02041490151357781</v>
       </c>
       <c r="D2">
-        <v>0.01747126808462268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02501415148060422</v>
+      </c>
+      <c r="E2">
+        <v>-0.00889430174516127</v>
+      </c>
+      <c r="F2">
+        <v>0.03161391560082027</v>
+      </c>
+      <c r="G2">
+        <v>-0.0009233864371591025</v>
+      </c>
+      <c r="H2">
+        <v>0.01702855646338412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07385480350149767</v>
+        <v>0.08788080120407499</v>
       </c>
       <c r="C4">
-        <v>-0.06344306220715284</v>
+        <v>0.0224014907246329</v>
       </c>
       <c r="D4">
-        <v>0.06999951617236908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08057248343587688</v>
+      </c>
+      <c r="E4">
+        <v>-0.01127343503177577</v>
+      </c>
+      <c r="F4">
+        <v>0.04365184136379298</v>
+      </c>
+      <c r="G4">
+        <v>0.02179585016124998</v>
+      </c>
+      <c r="H4">
+        <v>-0.03350309874688284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.108463423703743</v>
+        <v>0.1226739625280679</v>
       </c>
       <c r="C6">
-        <v>-0.06243510875014053</v>
+        <v>0.04148911627908865</v>
       </c>
       <c r="D6">
-        <v>-0.001139634503292171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02144661882396705</v>
+      </c>
+      <c r="E6">
+        <v>0.02318135587876578</v>
+      </c>
+      <c r="F6">
+        <v>0.04015063458621124</v>
+      </c>
+      <c r="G6">
+        <v>0.0466806871585442</v>
+      </c>
+      <c r="H6">
+        <v>0.1766387143370095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05554402891825638</v>
+        <v>0.06522915881406137</v>
       </c>
       <c r="C7">
-        <v>-0.04089420548190571</v>
+        <v>0.009479257571455362</v>
       </c>
       <c r="D7">
-        <v>0.02858870970283831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05647317842733592</v>
+      </c>
+      <c r="E7">
+        <v>-0.02488383449502505</v>
+      </c>
+      <c r="F7">
+        <v>0.04734462852317094</v>
+      </c>
+      <c r="G7">
+        <v>-0.02584464543800737</v>
+      </c>
+      <c r="H7">
+        <v>-0.01721095403311079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04086679031972709</v>
+        <v>0.04451263123722437</v>
       </c>
       <c r="C8">
-        <v>-0.01752386620439022</v>
+        <v>0.002915220239628937</v>
       </c>
       <c r="D8">
-        <v>0.06216907377427789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03073208529840643</v>
+      </c>
+      <c r="E8">
+        <v>-0.007365059088425363</v>
+      </c>
+      <c r="F8">
+        <v>0.07299397844966585</v>
+      </c>
+      <c r="G8">
+        <v>0.08762388974499298</v>
+      </c>
+      <c r="H8">
+        <v>0.01050863083185807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07158811811216315</v>
+        <v>0.08097144098362126</v>
       </c>
       <c r="C9">
-        <v>-0.05109754871359375</v>
+        <v>0.01306375898253206</v>
       </c>
       <c r="D9">
-        <v>0.06480057506274131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07063100187242154</v>
+      </c>
+      <c r="E9">
+        <v>-0.02357871420037868</v>
+      </c>
+      <c r="F9">
+        <v>0.03867890197156833</v>
+      </c>
+      <c r="G9">
+        <v>0.03342366432702498</v>
+      </c>
+      <c r="H9">
+        <v>-0.03588111422601874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02280642492194572</v>
+        <v>0.04921396750986078</v>
       </c>
       <c r="C10">
-        <v>-0.01546937857988779</v>
+        <v>0.10799816437508</v>
       </c>
       <c r="D10">
-        <v>-0.1722356023015495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1599262562756247</v>
+      </c>
+      <c r="E10">
+        <v>-0.03038398478393863</v>
+      </c>
+      <c r="F10">
+        <v>0.05885991813979023</v>
+      </c>
+      <c r="G10">
+        <v>-0.03304072390632192</v>
+      </c>
+      <c r="H10">
+        <v>0.04146295989704103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06789321033886023</v>
+        <v>0.07342618750592822</v>
       </c>
       <c r="C11">
-        <v>-0.04498529470542817</v>
+        <v>0.00453284290529149</v>
       </c>
       <c r="D11">
-        <v>0.05708836795136953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06542593850045933</v>
+      </c>
+      <c r="E11">
+        <v>-0.003743245850527023</v>
+      </c>
+      <c r="F11">
+        <v>0.03600500194911104</v>
+      </c>
+      <c r="G11">
+        <v>0.04505723407545284</v>
+      </c>
+      <c r="H11">
+        <v>-0.06319418696719822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05896093340999033</v>
+        <v>0.06721002216812184</v>
       </c>
       <c r="C12">
-        <v>-0.05463776894379312</v>
+        <v>0.0173344085107564</v>
       </c>
       <c r="D12">
-        <v>0.04518350415348978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05812578339131252</v>
+      </c>
+      <c r="E12">
+        <v>-0.0113237369538419</v>
+      </c>
+      <c r="F12">
+        <v>0.02482265017759371</v>
+      </c>
+      <c r="G12">
+        <v>0.02027502739303916</v>
+      </c>
+      <c r="H12">
+        <v>-0.02909712122336711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06878028564314102</v>
+        <v>0.06983868045303163</v>
       </c>
       <c r="C13">
-        <v>-0.05158482088580846</v>
+        <v>0.01740755667872748</v>
       </c>
       <c r="D13">
-        <v>0.03349989952152262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04666499198628971</v>
+      </c>
+      <c r="E13">
+        <v>-0.008742138479923988</v>
+      </c>
+      <c r="F13">
+        <v>0.019939936091876</v>
+      </c>
+      <c r="G13">
+        <v>0.02139857021385242</v>
+      </c>
+      <c r="H13">
+        <v>-0.04868370050444124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02910527359446633</v>
+        <v>0.03921009546649793</v>
       </c>
       <c r="C14">
-        <v>-0.03090959006799979</v>
+        <v>0.02419655197504874</v>
       </c>
       <c r="D14">
-        <v>-0.006320319635885082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02031984817845332</v>
+      </c>
+      <c r="E14">
+        <v>-0.02604619347590102</v>
+      </c>
+      <c r="F14">
+        <v>0.0182705540891627</v>
+      </c>
+      <c r="G14">
+        <v>0.01460973406603492</v>
+      </c>
+      <c r="H14">
+        <v>-0.0675944017624656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04030620747457257</v>
+        <v>0.03894333945617619</v>
       </c>
       <c r="C15">
-        <v>-0.01400048233541258</v>
+        <v>0.00114698970517937</v>
       </c>
       <c r="D15">
-        <v>0.02210634935631521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01261961210479998</v>
+      </c>
+      <c r="E15">
+        <v>-0.03153093969091281</v>
+      </c>
+      <c r="F15">
+        <v>0.004944315305281719</v>
+      </c>
+      <c r="G15">
+        <v>0.03097346551719707</v>
+      </c>
+      <c r="H15">
+        <v>-0.03067462261055592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05749451792246939</v>
+        <v>0.06961056443193449</v>
       </c>
       <c r="C16">
-        <v>-0.04171533361218777</v>
+        <v>0.007246982762676386</v>
       </c>
       <c r="D16">
-        <v>0.05465418832801944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06608227541408944</v>
+      </c>
+      <c r="E16">
+        <v>-0.007186037542803097</v>
+      </c>
+      <c r="F16">
+        <v>0.03067847253454545</v>
+      </c>
+      <c r="G16">
+        <v>0.01816497230408798</v>
+      </c>
+      <c r="H16">
+        <v>-0.04677881249253878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06283372552111471</v>
+        <v>0.06331259971467564</v>
       </c>
       <c r="C20">
-        <v>-0.03225252715111573</v>
+        <v>9.489917536667909e-05</v>
       </c>
       <c r="D20">
-        <v>0.0448805036248509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0429711504623081</v>
+      </c>
+      <c r="E20">
+        <v>-0.006179234146560355</v>
+      </c>
+      <c r="F20">
+        <v>0.02738863943636161</v>
+      </c>
+      <c r="G20">
+        <v>0.01986933750589647</v>
+      </c>
+      <c r="H20">
+        <v>-0.04209847767822354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0333019336293439</v>
+        <v>0.02791809061394477</v>
       </c>
       <c r="C21">
-        <v>-0.009189838597023952</v>
+        <v>-0.008736532222742096</v>
       </c>
       <c r="D21">
-        <v>0.009538746552000911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01903180774674029</v>
+      </c>
+      <c r="E21">
+        <v>-0.04128989731027794</v>
+      </c>
+      <c r="F21">
+        <v>-0.01434139844965771</v>
+      </c>
+      <c r="G21">
+        <v>0.005798631780606731</v>
+      </c>
+      <c r="H21">
+        <v>0.03805257401213276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08182132444397221</v>
+        <v>0.07348981315683824</v>
       </c>
       <c r="C22">
-        <v>-0.080973158730988</v>
+        <v>0.01722329526848635</v>
       </c>
       <c r="D22">
-        <v>0.1263573130599759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.104765224275687</v>
+      </c>
+      <c r="E22">
+        <v>-0.6025661471328334</v>
+      </c>
+      <c r="F22">
+        <v>-0.04065874257571726</v>
+      </c>
+      <c r="G22">
+        <v>-0.1855153186645389</v>
+      </c>
+      <c r="H22">
+        <v>0.1431710283262876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08297903010173693</v>
+        <v>0.07449611274206998</v>
       </c>
       <c r="C23">
-        <v>-0.07974608073330618</v>
+        <v>0.01578284625832274</v>
       </c>
       <c r="D23">
-        <v>0.1274492324029502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.105370631921984</v>
+      </c>
+      <c r="E23">
+        <v>-0.6046014149886066</v>
+      </c>
+      <c r="F23">
+        <v>-0.0398597503392917</v>
+      </c>
+      <c r="G23">
+        <v>-0.1798949080682358</v>
+      </c>
+      <c r="H23">
+        <v>0.1398063663374807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0731987160427309</v>
+        <v>0.07919622139877841</v>
       </c>
       <c r="C24">
-        <v>-0.05362587099537122</v>
+        <v>0.01190192021961854</v>
       </c>
       <c r="D24">
-        <v>0.05889352131025297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06636216149527915</v>
+      </c>
+      <c r="E24">
+        <v>-0.01389097171023527</v>
+      </c>
+      <c r="F24">
+        <v>0.03773883715401569</v>
+      </c>
+      <c r="G24">
+        <v>0.03865131304600226</v>
+      </c>
+      <c r="H24">
+        <v>-0.03043000730595964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07246569791690136</v>
+        <v>0.0782074840080093</v>
       </c>
       <c r="C25">
-        <v>-0.05711045473811768</v>
+        <v>0.01821588418362935</v>
       </c>
       <c r="D25">
-        <v>0.05609789431816788</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06059509988093007</v>
+      </c>
+      <c r="E25">
+        <v>-0.0186508419452261</v>
+      </c>
+      <c r="F25">
+        <v>0.03408296904151484</v>
+      </c>
+      <c r="G25">
+        <v>0.04322995760839577</v>
+      </c>
+      <c r="H25">
+        <v>-0.04005161946952596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0440191880016932</v>
+        <v>0.04526353035030782</v>
       </c>
       <c r="C26">
-        <v>-0.01666985882229464</v>
+        <v>0.0001435628640435141</v>
       </c>
       <c r="D26">
-        <v>0.01045202266755327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01940084589828846</v>
+      </c>
+      <c r="E26">
+        <v>-0.04501568234913362</v>
+      </c>
+      <c r="F26">
+        <v>0.02908527534681672</v>
+      </c>
+      <c r="G26">
+        <v>0.02707778404654015</v>
+      </c>
+      <c r="H26">
+        <v>-0.04492936771516821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03670924020638929</v>
+        <v>0.06894026139845473</v>
       </c>
       <c r="C28">
-        <v>-0.04716849065430093</v>
+        <v>0.1828783211446387</v>
       </c>
       <c r="D28">
-        <v>-0.3145831698174745</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2628143794646653</v>
+      </c>
+      <c r="E28">
+        <v>-0.03373608365427664</v>
+      </c>
+      <c r="F28">
+        <v>0.05220472719772987</v>
+      </c>
+      <c r="G28">
+        <v>0.02572154180519285</v>
+      </c>
+      <c r="H28">
+        <v>0.06069122170054867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04321438586062267</v>
+        <v>0.04846016500329551</v>
       </c>
       <c r="C29">
-        <v>-0.04253398384458498</v>
+        <v>0.02861663231096405</v>
       </c>
       <c r="D29">
-        <v>-0.003854574300909241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02186111066405091</v>
+      </c>
+      <c r="E29">
+        <v>-0.0517420633507208</v>
+      </c>
+      <c r="F29">
+        <v>0.02167487474044311</v>
+      </c>
+      <c r="G29">
+        <v>0.003017124429986596</v>
+      </c>
+      <c r="H29">
+        <v>-0.0884728303291001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1310415293390606</v>
+        <v>0.1280991207825464</v>
       </c>
       <c r="C30">
-        <v>-0.1062119618110322</v>
+        <v>0.03744276687590782</v>
       </c>
       <c r="D30">
-        <v>0.1021213916138836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09679068047709426</v>
+      </c>
+      <c r="E30">
+        <v>-0.05296993377597817</v>
+      </c>
+      <c r="F30">
+        <v>0.01802339011960231</v>
+      </c>
+      <c r="G30">
+        <v>0.07878135307277512</v>
+      </c>
+      <c r="H30">
+        <v>0.05259816034752924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04822688538639906</v>
+        <v>0.0488707764510953</v>
       </c>
       <c r="C31">
-        <v>-0.02447820037493288</v>
+        <v>-0.000932102432085017</v>
       </c>
       <c r="D31">
-        <v>0.01920569299259513</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03650583029580856</v>
+      </c>
+      <c r="E31">
+        <v>-0.02292514019678842</v>
+      </c>
+      <c r="F31">
+        <v>0.01052939878807354</v>
+      </c>
+      <c r="G31">
+        <v>-0.005850952920447625</v>
+      </c>
+      <c r="H31">
+        <v>-0.06855918954357626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03607057263301515</v>
+        <v>0.03901629008681378</v>
       </c>
       <c r="C32">
-        <v>-0.02612292501957064</v>
+        <v>0.01894617711283597</v>
       </c>
       <c r="D32">
-        <v>0.02943931301680683</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01399357658754803</v>
+      </c>
+      <c r="E32">
+        <v>-0.04451845331519003</v>
+      </c>
+      <c r="F32">
+        <v>-0.0005139828404010804</v>
+      </c>
+      <c r="G32">
+        <v>0.04548416791523239</v>
+      </c>
+      <c r="H32">
+        <v>-0.00650703916952351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08383144661162197</v>
+        <v>0.09316359332413439</v>
       </c>
       <c r="C33">
-        <v>-0.04776361946903111</v>
+        <v>0.009801090914566383</v>
       </c>
       <c r="D33">
-        <v>0.04726880439170345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05592912302790153</v>
+      </c>
+      <c r="E33">
+        <v>-0.01317169276528298</v>
+      </c>
+      <c r="F33">
+        <v>0.00291686335718296</v>
+      </c>
+      <c r="G33">
+        <v>0.006434174591259191</v>
+      </c>
+      <c r="H33">
+        <v>-0.06101321526452944</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05838856289759616</v>
+        <v>0.06699929740720206</v>
       </c>
       <c r="C34">
-        <v>-0.02973445386590764</v>
+        <v>0.0005326488521161916</v>
       </c>
       <c r="D34">
-        <v>0.05203796082660334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04862341580144076</v>
+      </c>
+      <c r="E34">
+        <v>-0.01403634364745381</v>
+      </c>
+      <c r="F34">
+        <v>0.02082642963987373</v>
+      </c>
+      <c r="G34">
+        <v>0.02628731728214582</v>
+      </c>
+      <c r="H34">
+        <v>-0.04995961243824268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0360469024909134</v>
+        <v>0.03756799188995776</v>
       </c>
       <c r="C35">
-        <v>-0.01707547540193949</v>
+        <v>0.003070341165530632</v>
       </c>
       <c r="D35">
-        <v>0.01821036435909528</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01981872887953606</v>
+      </c>
+      <c r="E35">
+        <v>-0.02120761313124749</v>
+      </c>
+      <c r="F35">
+        <v>-0.01448146652667537</v>
+      </c>
+      <c r="G35">
+        <v>-0.003878211472196946</v>
+      </c>
+      <c r="H35">
+        <v>-0.03393917935807791</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02641981829652718</v>
+        <v>0.02799208492002812</v>
       </c>
       <c r="C36">
-        <v>-0.02128304801187128</v>
+        <v>0.007698603419888555</v>
       </c>
       <c r="D36">
-        <v>0.01916062976672497</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02177403493380169</v>
+      </c>
+      <c r="E36">
+        <v>-0.03383721483245678</v>
+      </c>
+      <c r="F36">
+        <v>0.02778204350927805</v>
+      </c>
+      <c r="G36">
+        <v>0.01330993896094336</v>
+      </c>
+      <c r="H36">
+        <v>-0.04156847124022965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05096777346888193</v>
+        <v>0.04789912849974902</v>
       </c>
       <c r="C38">
-        <v>-0.01308246173569126</v>
+        <v>-0.007969864887310812</v>
       </c>
       <c r="D38">
-        <v>0.003243987568546422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02158131068445544</v>
+      </c>
+      <c r="E38">
+        <v>-0.05038570209894295</v>
+      </c>
+      <c r="F38">
+        <v>-0.001834177928836027</v>
+      </c>
+      <c r="G38">
+        <v>0.002899827197375574</v>
+      </c>
+      <c r="H38">
+        <v>-0.02893735115425227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09037390212770588</v>
+        <v>0.1001948941279399</v>
       </c>
       <c r="C39">
-        <v>-0.07957050761494261</v>
+        <v>0.03293592304487868</v>
       </c>
       <c r="D39">
-        <v>0.04551880517374494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07645973642719953</v>
+      </c>
+      <c r="E39">
+        <v>-0.003180038227168152</v>
+      </c>
+      <c r="F39">
+        <v>0.003932215897463531</v>
+      </c>
+      <c r="G39">
+        <v>0.05132663886936373</v>
+      </c>
+      <c r="H39">
+        <v>-0.02215859126416237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07991155465422056</v>
+        <v>0.05981599209673085</v>
       </c>
       <c r="C40">
-        <v>-0.04094975506404888</v>
+        <v>-0.008873000189037417</v>
       </c>
       <c r="D40">
-        <v>0.01154501011780058</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03602525932993873</v>
+      </c>
+      <c r="E40">
+        <v>-0.04068078051613758</v>
+      </c>
+      <c r="F40">
+        <v>-0.03910260099860605</v>
+      </c>
+      <c r="G40">
+        <v>0.05893588992398314</v>
+      </c>
+      <c r="H40">
+        <v>0.07865951074096389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04522973778216645</v>
+        <v>0.04573909029411605</v>
       </c>
       <c r="C41">
-        <v>-0.0196798810493875</v>
+        <v>-0.00578307835065083</v>
       </c>
       <c r="D41">
-        <v>0.03136920237191598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03393275952983727</v>
+      </c>
+      <c r="E41">
+        <v>-0.001420816796548458</v>
+      </c>
+      <c r="F41">
+        <v>-0.01330565345258895</v>
+      </c>
+      <c r="G41">
+        <v>0.005189194171374601</v>
+      </c>
+      <c r="H41">
+        <v>-0.03515390296635419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05327045157032522</v>
+        <v>0.05995188223020803</v>
       </c>
       <c r="C43">
-        <v>-0.03164811650720376</v>
+        <v>0.009292679375430863</v>
       </c>
       <c r="D43">
-        <v>0.006866028403997747</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03434160682902389</v>
+      </c>
+      <c r="E43">
+        <v>-0.0187450671859583</v>
+      </c>
+      <c r="F43">
+        <v>0.01343587977142631</v>
+      </c>
+      <c r="G43">
+        <v>-0.01955753549238409</v>
+      </c>
+      <c r="H43">
+        <v>-0.05841239751056933</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09582710832968976</v>
+        <v>0.09477415434967358</v>
       </c>
       <c r="C44">
-        <v>-0.03664025661813848</v>
+        <v>-0.004371907060891777</v>
       </c>
       <c r="D44">
-        <v>0.04766653799060849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05444017232230036</v>
+      </c>
+      <c r="E44">
+        <v>-0.0792697114604034</v>
+      </c>
+      <c r="F44">
+        <v>0.08270097679877554</v>
+      </c>
+      <c r="G44">
+        <v>0.06955112793417001</v>
+      </c>
+      <c r="H44">
+        <v>-0.04907915200375698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02600719531483808</v>
+        <v>0.0381715885529461</v>
       </c>
       <c r="C46">
-        <v>-0.02390449981278284</v>
+        <v>0.01085958457509198</v>
       </c>
       <c r="D46">
-        <v>0.03025583708484595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03861242504758378</v>
+      </c>
+      <c r="E46">
+        <v>-0.03093758285748757</v>
+      </c>
+      <c r="F46">
+        <v>0.01670806343284307</v>
+      </c>
+      <c r="G46">
+        <v>-0.004890707350796998</v>
+      </c>
+      <c r="H46">
+        <v>-0.03577413793036036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0332984740661537</v>
+        <v>0.04110289065167241</v>
       </c>
       <c r="C47">
-        <v>-0.02359273988985161</v>
+        <v>0.01565142006630829</v>
       </c>
       <c r="D47">
-        <v>-0.007552865354378708</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01364937330853719</v>
+      </c>
+      <c r="E47">
+        <v>-0.04189874320866418</v>
+      </c>
+      <c r="F47">
+        <v>-0.007399434578939364</v>
+      </c>
+      <c r="G47">
+        <v>-0.03428530551305944</v>
+      </c>
+      <c r="H47">
+        <v>-0.02014380508873577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03700731244468547</v>
+        <v>0.04001022061963395</v>
       </c>
       <c r="C48">
-        <v>-0.03033067150936285</v>
+        <v>0.01158750487945323</v>
       </c>
       <c r="D48">
-        <v>0.02768317044342925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.024583968615619</v>
+      </c>
+      <c r="E48">
+        <v>-0.0403175847548899</v>
+      </c>
+      <c r="F48">
+        <v>0.007846528376702504</v>
+      </c>
+      <c r="G48">
+        <v>0.02192089527385211</v>
+      </c>
+      <c r="H48">
+        <v>-0.02260005037631031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.161124678138119</v>
+        <v>0.196240302102509</v>
       </c>
       <c r="C49">
-        <v>-0.05429819945844996</v>
+        <v>0.02891416518858551</v>
       </c>
       <c r="D49">
-        <v>0.006709542323227415</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03458576606942002</v>
+      </c>
+      <c r="E49">
+        <v>0.180067549945734</v>
+      </c>
+      <c r="F49">
+        <v>0.03246271456623696</v>
+      </c>
+      <c r="G49">
+        <v>-0.1334901908433892</v>
+      </c>
+      <c r="H49">
+        <v>0.2408571402194113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04517627339329296</v>
+        <v>0.04804803216420184</v>
       </c>
       <c r="C50">
-        <v>-0.03038708824279339</v>
+        <v>0.006585945964578398</v>
       </c>
       <c r="D50">
-        <v>0.02792758743530239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.038857109426187</v>
+      </c>
+      <c r="E50">
+        <v>-0.02741227189917538</v>
+      </c>
+      <c r="F50">
+        <v>0.00700726604869458</v>
+      </c>
+      <c r="G50">
+        <v>0.0003700779247801009</v>
+      </c>
+      <c r="H50">
+        <v>-0.07501049027374496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02395896261968519</v>
+        <v>0.03349332275537455</v>
       </c>
       <c r="C51">
-        <v>-0.003513198483694238</v>
+        <v>0.002932701700485597</v>
       </c>
       <c r="D51">
-        <v>-0.003187812253752006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002526397860488265</v>
+      </c>
+      <c r="E51">
+        <v>-0.005739615763166085</v>
+      </c>
+      <c r="F51">
+        <v>0.01074660851158871</v>
+      </c>
+      <c r="G51">
+        <v>-0.01945025773811161</v>
+      </c>
+      <c r="H51">
+        <v>0.01589293444922846</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1520762453726306</v>
+        <v>0.1606758818825265</v>
       </c>
       <c r="C53">
-        <v>-0.08515703499938768</v>
+        <v>0.04626010572062123</v>
       </c>
       <c r="D53">
-        <v>-0.01289863621466925</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03478687278536023</v>
+      </c>
+      <c r="E53">
+        <v>0.03090618663144879</v>
+      </c>
+      <c r="F53">
+        <v>-2.102288013498457e-05</v>
+      </c>
+      <c r="G53">
+        <v>-0.01206419663224791</v>
+      </c>
+      <c r="H53">
+        <v>-0.1981354404081222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05821572108001146</v>
+        <v>0.06033889796591339</v>
       </c>
       <c r="C54">
-        <v>-0.03398572345364917</v>
+        <v>0.01866019438081612</v>
       </c>
       <c r="D54">
-        <v>0.01699197835394418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01797326133578843</v>
+      </c>
+      <c r="E54">
+        <v>-0.05713314906388275</v>
+      </c>
+      <c r="F54">
+        <v>0.01871824771595343</v>
+      </c>
+      <c r="G54">
+        <v>0.05567201577770219</v>
+      </c>
+      <c r="H54">
+        <v>-0.04493826501557124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09788978110436138</v>
+        <v>0.1003927469182818</v>
       </c>
       <c r="C55">
-        <v>-0.05468313295188401</v>
+        <v>0.02182513750016509</v>
       </c>
       <c r="D55">
-        <v>0.006306066486853094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03536781975692683</v>
+      </c>
+      <c r="E55">
+        <v>0.002394204345479098</v>
+      </c>
+      <c r="F55">
+        <v>0.01958709104011813</v>
+      </c>
+      <c r="G55">
+        <v>0.009787088672971362</v>
+      </c>
+      <c r="H55">
+        <v>-0.1546144970098666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.148367825574313</v>
+        <v>0.1546330284325874</v>
       </c>
       <c r="C56">
-        <v>-0.08600469170589448</v>
+        <v>0.03589921388856841</v>
       </c>
       <c r="D56">
-        <v>-0.00824398943450382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05322397708478981</v>
+      </c>
+      <c r="E56">
+        <v>0.01106106474239769</v>
+      </c>
+      <c r="F56">
+        <v>0.02131220150332247</v>
+      </c>
+      <c r="G56">
+        <v>-0.004560234433831684</v>
+      </c>
+      <c r="H56">
+        <v>-0.2035082926038183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1305766371078837</v>
+        <v>0.09791924652320956</v>
       </c>
       <c r="C58">
-        <v>0.02108982470911148</v>
+        <v>-0.0753294241015549</v>
       </c>
       <c r="D58">
-        <v>0.05133282943076409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01034120687427423</v>
+      </c>
+      <c r="E58">
+        <v>-0.1238054499401982</v>
+      </c>
+      <c r="F58">
+        <v>0.03099631048744872</v>
+      </c>
+      <c r="G58">
+        <v>-0.08564976125617159</v>
+      </c>
+      <c r="H58">
+        <v>0.2016067960602267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1122461781517583</v>
+        <v>0.1463537157010533</v>
       </c>
       <c r="C59">
-        <v>-0.05981660854584864</v>
+        <v>0.2017715571594234</v>
       </c>
       <c r="D59">
-        <v>-0.4151121465892624</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3101926074547514</v>
+      </c>
+      <c r="E59">
+        <v>-0.02599693476307249</v>
+      </c>
+      <c r="F59">
+        <v>0.00520354335012578</v>
+      </c>
+      <c r="G59">
+        <v>0.005653991289458317</v>
+      </c>
+      <c r="H59">
+        <v>-0.01612351619224126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2058485308835072</v>
+        <v>0.2372342864266942</v>
       </c>
       <c r="C60">
-        <v>-0.1039260885091628</v>
+        <v>0.05424104313885048</v>
       </c>
       <c r="D60">
-        <v>-0.003123680646888017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05992614920914474</v>
+      </c>
+      <c r="E60">
+        <v>0.1276700021344715</v>
+      </c>
+      <c r="F60">
+        <v>0.04363033833457586</v>
+      </c>
+      <c r="G60">
+        <v>-0.0183467911265917</v>
+      </c>
+      <c r="H60">
+        <v>0.157213043561328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07693864452287151</v>
+        <v>0.08476514131405706</v>
       </c>
       <c r="C61">
-        <v>-0.04992763299786812</v>
+        <v>0.01743254110924226</v>
       </c>
       <c r="D61">
-        <v>0.03039768792750993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05123253746888446</v>
+      </c>
+      <c r="E61">
+        <v>-0.008890656171946275</v>
+      </c>
+      <c r="F61">
+        <v>0.0143904993559559</v>
+      </c>
+      <c r="G61">
+        <v>0.03016845957704531</v>
+      </c>
+      <c r="H61">
+        <v>-0.06891533798834683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1303259655680446</v>
+        <v>0.1372866912885668</v>
       </c>
       <c r="C62">
-        <v>-0.05312205107145993</v>
+        <v>0.01126319925601927</v>
       </c>
       <c r="D62">
-        <v>-0.008597120932355528</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04415033854914101</v>
+      </c>
+      <c r="E62">
+        <v>0.03942622451264675</v>
+      </c>
+      <c r="F62">
+        <v>-0.02328035486882444</v>
+      </c>
+      <c r="G62">
+        <v>0.0245100184469075</v>
+      </c>
+      <c r="H62">
+        <v>-0.1995048288233277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04941525961814734</v>
+        <v>0.04814131123168585</v>
       </c>
       <c r="C63">
-        <v>-0.0266958195663995</v>
+        <v>0.00678326712158115</v>
       </c>
       <c r="D63">
-        <v>0.02370388080520766</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02609055846195448</v>
+      </c>
+      <c r="E63">
+        <v>-0.03956049168478521</v>
+      </c>
+      <c r="F63">
+        <v>0.001179282707433059</v>
+      </c>
+      <c r="G63">
+        <v>0.0359061144946372</v>
+      </c>
+      <c r="H63">
+        <v>-0.040332325424966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1061034805423461</v>
+        <v>0.1112182110661662</v>
       </c>
       <c r="C64">
-        <v>-0.04484748940389863</v>
+        <v>0.01755891577630794</v>
       </c>
       <c r="D64">
-        <v>0.01440533967519898</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03004272502013961</v>
+      </c>
+      <c r="E64">
+        <v>-0.04216413508834759</v>
+      </c>
+      <c r="F64">
+        <v>0.04932898623277361</v>
+      </c>
+      <c r="G64">
+        <v>0.05835516959750362</v>
+      </c>
+      <c r="H64">
+        <v>-0.01989622733291973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1248260187078732</v>
+        <v>0.131146122996591</v>
       </c>
       <c r="C65">
-        <v>-0.06834484958003953</v>
+        <v>0.04532974864432196</v>
       </c>
       <c r="D65">
-        <v>0.004301812008677327</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02330474701175487</v>
+      </c>
+      <c r="E65">
+        <v>0.0007257744636659925</v>
+      </c>
+      <c r="F65">
+        <v>0.02490859882101907</v>
+      </c>
+      <c r="G65">
+        <v>0.07127490591848529</v>
+      </c>
+      <c r="H65">
+        <v>0.2021445724500341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1493088312487128</v>
+        <v>0.1523116094500415</v>
       </c>
       <c r="C66">
-        <v>-0.09242369755985773</v>
+        <v>0.0163345357633289</v>
       </c>
       <c r="D66">
-        <v>0.08937251990924647</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.11276461125923</v>
+      </c>
+      <c r="E66">
+        <v>0.02290971653998427</v>
+      </c>
+      <c r="F66">
+        <v>0.004814391007778238</v>
+      </c>
+      <c r="G66">
+        <v>0.07470948519044436</v>
+      </c>
+      <c r="H66">
+        <v>-0.08742598350571798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07916639502938824</v>
+        <v>0.0860494282678247</v>
       </c>
       <c r="C67">
-        <v>-0.02077448296675733</v>
+        <v>-0.005188613913778965</v>
       </c>
       <c r="D67">
-        <v>0.01290358340267339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0344935801871102</v>
+      </c>
+      <c r="E67">
+        <v>-0.0188189199457954</v>
+      </c>
+      <c r="F67">
+        <v>0.01460517191894146</v>
+      </c>
+      <c r="G67">
+        <v>-0.01186152657095265</v>
+      </c>
+      <c r="H67">
+        <v>-0.02624635720897077</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04503633034255331</v>
+        <v>0.06319520691362913</v>
       </c>
       <c r="C68">
-        <v>-0.03073479277741338</v>
+        <v>0.1499171850981107</v>
       </c>
       <c r="D68">
-        <v>-0.2629571123890203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.238510324010757</v>
+      </c>
+      <c r="E68">
+        <v>-0.04429751013594272</v>
+      </c>
+      <c r="F68">
+        <v>0.009958665453587893</v>
+      </c>
+      <c r="G68">
+        <v>-0.0008155505542445393</v>
+      </c>
+      <c r="H68">
+        <v>-0.01224116168661681</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05456844676151555</v>
+        <v>0.05260705502880302</v>
       </c>
       <c r="C69">
-        <v>-0.02492950409367022</v>
+        <v>0.001815210696769712</v>
       </c>
       <c r="D69">
-        <v>0.01702186501505721</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02222451652398976</v>
+      </c>
+      <c r="E69">
+        <v>-0.0213710706585506</v>
+      </c>
+      <c r="F69">
+        <v>-0.01223245408411622</v>
+      </c>
+      <c r="G69">
+        <v>-0.001203794284810685</v>
+      </c>
+      <c r="H69">
+        <v>-0.04100151434612687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.008575110474317322</v>
+        <v>0.03153211984222582</v>
       </c>
       <c r="C70">
-        <v>0.00285781836720642</v>
+        <v>0.004124510753916512</v>
       </c>
       <c r="D70">
-        <v>-0.01199189039544324</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006684562868970547</v>
+      </c>
+      <c r="E70">
+        <v>0.02411008916787162</v>
+      </c>
+      <c r="F70">
+        <v>-0.008352757304422557</v>
+      </c>
+      <c r="G70">
+        <v>-0.02549117003605278</v>
+      </c>
+      <c r="H70">
+        <v>0.02657155127402103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04231920193586014</v>
+        <v>0.06867146943245614</v>
       </c>
       <c r="C71">
-        <v>-0.02924416666306254</v>
+        <v>0.1653755141484717</v>
       </c>
       <c r="D71">
-        <v>-0.2941103450590848</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2592337361183617</v>
+      </c>
+      <c r="E71">
+        <v>-0.03946760524191808</v>
+      </c>
+      <c r="F71">
+        <v>0.03918209593457987</v>
+      </c>
+      <c r="G71">
+        <v>-0.000774607505201302</v>
+      </c>
+      <c r="H71">
+        <v>-0.01291545205972889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1373895784461807</v>
+        <v>0.1418846538356313</v>
       </c>
       <c r="C72">
-        <v>-0.06179915075421063</v>
+        <v>0.03039896901729908</v>
       </c>
       <c r="D72">
-        <v>-0.0174797120826737</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01023658235500279</v>
+      </c>
+      <c r="E72">
+        <v>0.03960204178262366</v>
+      </c>
+      <c r="F72">
+        <v>-0.1648594958576755</v>
+      </c>
+      <c r="G72">
+        <v>0.1105003389138512</v>
+      </c>
+      <c r="H72">
+        <v>0.005672616487151509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2821302881773647</v>
+        <v>0.2830943151855742</v>
       </c>
       <c r="C73">
-        <v>-0.09535610624005632</v>
+        <v>-0.01332184765124109</v>
       </c>
       <c r="D73">
-        <v>0.04372924981961817</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09712037748405061</v>
+      </c>
+      <c r="E73">
+        <v>0.2782823272661231</v>
+      </c>
+      <c r="F73">
+        <v>0.05650411029960339</v>
+      </c>
+      <c r="G73">
+        <v>-0.2455223891342441</v>
+      </c>
+      <c r="H73">
+        <v>0.3869770061634332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0770521436580303</v>
+        <v>0.08878172153629739</v>
       </c>
       <c r="C74">
-        <v>-0.07423280701134768</v>
+        <v>0.03914179403186298</v>
       </c>
       <c r="D74">
-        <v>0.002480377454061506</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05495141382444232</v>
+      </c>
+      <c r="E74">
+        <v>0.007263725514011988</v>
+      </c>
+      <c r="F74">
+        <v>0.001506310716775087</v>
+      </c>
+      <c r="G74">
+        <v>-0.0388760257258604</v>
+      </c>
+      <c r="H74">
+        <v>-0.1295878020300139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1013579931963745</v>
+        <v>0.1023252252827832</v>
       </c>
       <c r="C75">
-        <v>-0.05453709545285308</v>
+        <v>0.01435386830818874</v>
       </c>
       <c r="D75">
-        <v>-0.001517176402480413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03141133930716164</v>
+      </c>
+      <c r="E75">
+        <v>-0.001121138558705237</v>
+      </c>
+      <c r="F75">
+        <v>-0.000517079340745225</v>
+      </c>
+      <c r="G75">
+        <v>-0.01162332246349765</v>
+      </c>
+      <c r="H75">
+        <v>-0.1056425353137542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1268725431336285</v>
+        <v>0.1375588907759167</v>
       </c>
       <c r="C76">
-        <v>-0.07455625447474923</v>
+        <v>0.02835514711302724</v>
       </c>
       <c r="D76">
-        <v>0.01787906402309889</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06586330549819398</v>
+      </c>
+      <c r="E76">
+        <v>-0.01166792759783879</v>
+      </c>
+      <c r="F76">
+        <v>0.03260900184701103</v>
+      </c>
+      <c r="G76">
+        <v>-0.003162944451484282</v>
+      </c>
+      <c r="H76">
+        <v>-0.2449453067652863</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1180956577647776</v>
+        <v>0.09857775081379029</v>
       </c>
       <c r="C77">
-        <v>-0.03288586768357954</v>
+        <v>-0.02245664674764576</v>
       </c>
       <c r="D77">
-        <v>0.07616134684049995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04010153017436545</v>
+      </c>
+      <c r="E77">
+        <v>-0.06026090428214243</v>
+      </c>
+      <c r="F77">
+        <v>0.06482081650458979</v>
+      </c>
+      <c r="G77">
+        <v>0.8040190608573897</v>
+      </c>
+      <c r="H77">
+        <v>0.2601548807601487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1078117026499156</v>
+        <v>0.1502317590434064</v>
       </c>
       <c r="C78">
-        <v>-0.05147932859818375</v>
+        <v>0.02199307535368231</v>
       </c>
       <c r="D78">
-        <v>0.0804540767933426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08764991519222265</v>
+      </c>
+      <c r="E78">
+        <v>-0.04918670059066498</v>
+      </c>
+      <c r="F78">
+        <v>0.05644497656815355</v>
+      </c>
+      <c r="G78">
+        <v>0.03363434610936951</v>
+      </c>
+      <c r="H78">
+        <v>0.1039248144072467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.13868496689453</v>
+        <v>0.1439181805581152</v>
       </c>
       <c r="C79">
-        <v>-0.07171678873255743</v>
+        <v>0.02095262719560972</v>
       </c>
       <c r="D79">
-        <v>0.02384411833368665</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05460193165607469</v>
+      </c>
+      <c r="E79">
+        <v>0.01267023410116538</v>
+      </c>
+      <c r="F79">
+        <v>0.0194139198402716</v>
+      </c>
+      <c r="G79">
+        <v>0.01564340475705235</v>
+      </c>
+      <c r="H79">
+        <v>-0.169003382406055</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04129138713610649</v>
+        <v>0.04188376959714343</v>
       </c>
       <c r="C80">
-        <v>-0.0231107874091766</v>
+        <v>0.006899827435381673</v>
       </c>
       <c r="D80">
-        <v>0.02714425276749989</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01943587495300932</v>
+      </c>
+      <c r="E80">
+        <v>0.04498693909029393</v>
+      </c>
+      <c r="F80">
+        <v>0.005923736326933535</v>
+      </c>
+      <c r="G80">
+        <v>-0.01430615227530481</v>
+      </c>
+      <c r="H80">
+        <v>-0.02485068143631187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1240217414305405</v>
+        <v>0.127248373596958</v>
       </c>
       <c r="C81">
-        <v>-0.07520560711988412</v>
+        <v>0.03183677608594829</v>
       </c>
       <c r="D81">
-        <v>0.009163694158819629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04010273089357443</v>
+      </c>
+      <c r="E81">
+        <v>-0.0008026391288967122</v>
+      </c>
+      <c r="F81">
+        <v>0.02593114898619581</v>
+      </c>
+      <c r="G81">
+        <v>-0.008860538364544751</v>
+      </c>
+      <c r="H81">
+        <v>-0.1556504940361002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1286900733724622</v>
+        <v>0.1311419088981174</v>
       </c>
       <c r="C82">
-        <v>-0.06979643735578504</v>
+        <v>0.02885239059303781</v>
       </c>
       <c r="D82">
-        <v>0.008197002321628085</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04330573555109752</v>
+      </c>
+      <c r="E82">
+        <v>0.01987592762951802</v>
+      </c>
+      <c r="F82">
+        <v>0.03830662908972188</v>
+      </c>
+      <c r="G82">
+        <v>-0.01234613266114265</v>
+      </c>
+      <c r="H82">
+        <v>-0.2379016883521207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06529774144025911</v>
+        <v>0.08058769030694209</v>
       </c>
       <c r="C83">
-        <v>0.01856094447964798</v>
+        <v>-0.03357274624665977</v>
       </c>
       <c r="D83">
-        <v>0.0240780372821831</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01287151080839137</v>
+      </c>
+      <c r="E83">
+        <v>-0.0135100540689841</v>
+      </c>
+      <c r="F83">
+        <v>0.03095246810552087</v>
+      </c>
+      <c r="G83">
+        <v>-0.05069770092095947</v>
+      </c>
+      <c r="H83">
+        <v>0.0229879460132106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03165412319315109</v>
+        <v>0.03436599059387177</v>
       </c>
       <c r="C84">
-        <v>-0.04177428459702073</v>
+        <v>0.01133443378999702</v>
       </c>
       <c r="D84">
-        <v>0.03094426539119696</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04871939283113855</v>
+      </c>
+      <c r="E84">
+        <v>-0.02303369762515275</v>
+      </c>
+      <c r="F84">
+        <v>-0.04121278144681757</v>
+      </c>
+      <c r="G84">
+        <v>-0.02700671431520109</v>
+      </c>
+      <c r="H84">
+        <v>-0.02333957061031543</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1154906179746624</v>
+        <v>0.1221680356113791</v>
       </c>
       <c r="C85">
-        <v>-0.0474025232401302</v>
+        <v>0.008064048074071089</v>
       </c>
       <c r="D85">
-        <v>0.04160330163598419</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04518629128880287</v>
+      </c>
+      <c r="E85">
+        <v>-0.009887528273732056</v>
+      </c>
+      <c r="F85">
+        <v>0.04157999394885638</v>
+      </c>
+      <c r="G85">
+        <v>-0.008703643424488735</v>
+      </c>
+      <c r="H85">
+        <v>-0.1432583620353897</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05041391406529833</v>
+        <v>0.05153330276009691</v>
       </c>
       <c r="C86">
-        <v>-0.02915428332568157</v>
+        <v>-0.002298704393972043</v>
       </c>
       <c r="D86">
-        <v>0.07200731507357443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04327809887336857</v>
+      </c>
+      <c r="E86">
+        <v>-0.04021278298669823</v>
+      </c>
+      <c r="F86">
+        <v>0.0264183432007199</v>
+      </c>
+      <c r="G86">
+        <v>-0.02338482792788542</v>
+      </c>
+      <c r="H86">
+        <v>0.05995137460289969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1193789983093463</v>
+        <v>0.1249911899907307</v>
       </c>
       <c r="C87">
-        <v>-0.08169958553566743</v>
+        <v>0.01810718188372998</v>
       </c>
       <c r="D87">
-        <v>0.06033738830245866</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08011854432337107</v>
+      </c>
+      <c r="E87">
+        <v>-0.02799329145855356</v>
+      </c>
+      <c r="F87">
+        <v>0.02749003866164644</v>
+      </c>
+      <c r="G87">
+        <v>0.1507418624383376</v>
+      </c>
+      <c r="H87">
+        <v>0.06752778150519984</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05455654305382582</v>
+        <v>0.06293042350634935</v>
       </c>
       <c r="C88">
-        <v>-0.03794140791888793</v>
+        <v>0.01093565793148239</v>
       </c>
       <c r="D88">
-        <v>0.02469352759447515</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04760765758697478</v>
+      </c>
+      <c r="E88">
+        <v>-0.001641621551006892</v>
+      </c>
+      <c r="F88">
+        <v>0.02282674169084608</v>
+      </c>
+      <c r="G88">
+        <v>0.008844564820831088</v>
+      </c>
+      <c r="H88">
+        <v>-0.04641429529969435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07285507536578473</v>
+        <v>0.1089547621232324</v>
       </c>
       <c r="C89">
-        <v>-0.05292004083525307</v>
+        <v>0.2089046515674241</v>
       </c>
       <c r="D89">
-        <v>-0.3241412137209925</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3004100412580369</v>
+      </c>
+      <c r="E89">
+        <v>-0.05055423641241689</v>
+      </c>
+      <c r="F89">
+        <v>0.0722219563862499</v>
+      </c>
+      <c r="G89">
+        <v>-0.02736101536191333</v>
+      </c>
+      <c r="H89">
+        <v>-0.02302270895207387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05635442442806293</v>
+        <v>0.08212941749271829</v>
       </c>
       <c r="C90">
-        <v>-0.03629198657282249</v>
+        <v>0.1614106955267241</v>
       </c>
       <c r="D90">
-        <v>-0.2807005311631612</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2484324314791221</v>
+      </c>
+      <c r="E90">
+        <v>-0.05116467108629215</v>
+      </c>
+      <c r="F90">
+        <v>0.02927354619604302</v>
+      </c>
+      <c r="G90">
+        <v>0.03514793136659259</v>
+      </c>
+      <c r="H90">
+        <v>0.01968930935925319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09124301739435084</v>
+        <v>0.09081918374941597</v>
       </c>
       <c r="C91">
-        <v>-0.05715504343280463</v>
+        <v>0.0168431622129367</v>
       </c>
       <c r="D91">
-        <v>0.004105345806934665</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0390668586417131</v>
+      </c>
+      <c r="E91">
+        <v>-0.003204431022532981</v>
+      </c>
+      <c r="F91">
+        <v>0.004790012342009222</v>
+      </c>
+      <c r="G91">
+        <v>-0.02330562193372605</v>
+      </c>
+      <c r="H91">
+        <v>-0.08657221447254619</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.057168606145494</v>
+        <v>0.08159033226258966</v>
       </c>
       <c r="C92">
-        <v>-0.04355643146195207</v>
+        <v>0.1856504451575524</v>
       </c>
       <c r="D92">
-        <v>-0.3329559759908819</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2848144663913404</v>
+      </c>
+      <c r="E92">
+        <v>-0.04678366717881873</v>
+      </c>
+      <c r="F92">
+        <v>0.0360255430011807</v>
+      </c>
+      <c r="G92">
+        <v>0.003702902316981073</v>
+      </c>
+      <c r="H92">
+        <v>-0.02713959400676611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05051455483171385</v>
+        <v>0.0794270995098568</v>
       </c>
       <c r="C93">
-        <v>-0.04452458080188904</v>
+        <v>0.1808528081174578</v>
       </c>
       <c r="D93">
-        <v>-0.3081142056318468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2604817331016109</v>
+      </c>
+      <c r="E93">
+        <v>-0.01676896719855045</v>
+      </c>
+      <c r="F93">
+        <v>0.02931624443913174</v>
+      </c>
+      <c r="G93">
+        <v>0.02003190031483819</v>
+      </c>
+      <c r="H93">
+        <v>-0.002914105426496884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1293471822231904</v>
+        <v>0.126811518647045</v>
       </c>
       <c r="C94">
-        <v>-0.04326999476171003</v>
+        <v>-0.006342522193311381</v>
       </c>
       <c r="D94">
-        <v>0.0391678156765822</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04541798694694158</v>
+      </c>
+      <c r="E94">
+        <v>0.02246026676868248</v>
+      </c>
+      <c r="F94">
+        <v>0.01939051251283133</v>
+      </c>
+      <c r="G94">
+        <v>-0.04207826740986608</v>
+      </c>
+      <c r="H94">
+        <v>-0.1002902755452598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1178919736583868</v>
+        <v>0.1306432222684384</v>
       </c>
       <c r="C95">
-        <v>-0.03710175546554311</v>
+        <v>-0.007767842995424646</v>
       </c>
       <c r="D95">
-        <v>0.05866246295750195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06170071444277522</v>
+      </c>
+      <c r="E95">
+        <v>-0.01325531788390583</v>
+      </c>
+      <c r="F95">
+        <v>0.05330495572258757</v>
+      </c>
+      <c r="G95">
+        <v>0.05298525022287451</v>
+      </c>
+      <c r="H95">
+        <v>0.1065092810380931</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2250522917321085</v>
+        <v>0.192409389994093</v>
       </c>
       <c r="C97">
-        <v>-0.06216917268524777</v>
+        <v>0.005955470474629368</v>
       </c>
       <c r="D97">
-        <v>-0.1245660660899995</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05624488623655854</v>
+      </c>
+      <c r="E97">
+        <v>0.02840995366852862</v>
+      </c>
+      <c r="F97">
+        <v>-0.93802139036215</v>
+      </c>
+      <c r="G97">
+        <v>0.05457732221170987</v>
+      </c>
+      <c r="H97">
+        <v>0.01119078873754369</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2401671525647369</v>
+        <v>0.2738312593866759</v>
       </c>
       <c r="C98">
-        <v>-0.06799529872984696</v>
+        <v>0.01335234786785467</v>
       </c>
       <c r="D98">
-        <v>0.009288992392672755</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04677216017318259</v>
+      </c>
+      <c r="E98">
+        <v>0.2169933437535737</v>
+      </c>
+      <c r="F98">
+        <v>0.03672359204189841</v>
+      </c>
+      <c r="G98">
+        <v>-0.2855323362876294</v>
+      </c>
+      <c r="H98">
+        <v>0.1447579160879076</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4407981419097155</v>
+        <v>0.2816946526156453</v>
       </c>
       <c r="C99">
-        <v>0.8804161024203691</v>
+        <v>-0.8309835827439362</v>
       </c>
       <c r="D99">
-        <v>-0.01021826540686353</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.4374960402940611</v>
+      </c>
+      <c r="E99">
+        <v>-0.07586768136369555</v>
+      </c>
+      <c r="F99">
+        <v>0.07356812191867022</v>
+      </c>
+      <c r="G99">
+        <v>0.00726669357299268</v>
+      </c>
+      <c r="H99">
+        <v>-0.06649981345128959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04325585678320739</v>
+        <v>0.04852245369376072</v>
       </c>
       <c r="C101">
-        <v>-0.04284111725088166</v>
+        <v>0.02880168873874806</v>
       </c>
       <c r="D101">
-        <v>-0.003666315084381694</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02229539679785767</v>
+      </c>
+      <c r="E101">
+        <v>-0.05146024332516926</v>
+      </c>
+      <c r="F101">
+        <v>0.02175362479542497</v>
+      </c>
+      <c r="G101">
+        <v>0.001885624062961986</v>
+      </c>
+      <c r="H101">
+        <v>-0.08714748247155663</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
